--- a/biology/Zoologie/Corydoras_paleatus/Corydoras_paleatus.xlsx
+++ b/biology/Zoologie/Corydoras_paleatus/Corydoras_paleatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydoras paleatus, Corydoras poivré ou Corydoras marbré, est un petit poisson-chat de la famille des Callichthyidés. On le rencontre dans des rivières d'Amérique du Sud mais est aussi commun élevé en aquarium. Cette espèce est en effet appréciée en aquariophilie, notamment en raison de la facilité de son élevage et pour son comportement pacifique.
 </t>
@@ -513,16 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-C'est un poisson de fond muni de barbillons avec lesquels il fouille le sol à la recherche de nourriture. Il est gris foncé, marbré de noir sur le corps et possède des points sur les nageoires. Les opercules et certaines parties du corps présentent des reflets bleu irisés.
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un poisson de fond muni de barbillons avec lesquels il fouille le sol à la recherche de nourriture. Il est gris foncé, marbré de noir sur le corps et possède des points sur les nageoires. Les opercules et certaines parties du corps présentent des reflets bleu irisés.
 L'espèce présente un dimorphisme sexuel. Le mâle mesure environ 6 cm et 7 cm pour la femelle, à l'âge adulte. La femelle est moins svelte que le mâle et présente un ventre arrondi en période de frai.
-Comportement et reproduction
-Ce poisson est particulièrement pacifique et paisible. Il est toujours en activité, de jour comme de nuit. De mœurs grégaires, il vit en groupe.
-Il a un régime omnivore et fouille le sol à la recherche de sa nourriture, de préférence des larves vivantes d'insectes.
-Ces corydoras sont ovipares. La femelle colle ses œufs sur des supports variés (vitres de l'aquarium, feuilles de plantes coriaces, cailloux lisses). Il y a beaucoup de pertes et peu d'alevins arrivent à l'âge adulte.
-Ils peuvent vivre plus de 10 ans.
-Habitat d'origine
-Le corydoras paleatus est originaire du Brésil, du Paraguay et de l'Uruguay, où il vit le plus souvent dans des rivières au courant plus ou moins rapide.
 </t>
         </is>
       </c>
@@ -548,16 +558,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Comportement et reproduction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson est particulièrement pacifique et paisible. Il est toujours en activité, de jour comme de nuit. De mœurs grégaires, il vit en groupe.
+Il a un régime omnivore et fouille le sol à la recherche de sa nourriture, de préférence des larves vivantes d'insectes.
+Ces corydoras sont ovipares. La femelle colle ses œufs sur des supports variés (vitres de l'aquarium, feuilles de plantes coriaces, cailloux lisses). Il y a beaucoup de pertes et peu d'alevins arrivent à l'âge adulte.
+Ils peuvent vivre plus de 10 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corydoras_paleatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_paleatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat d'origine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corydoras paleatus est originaire du Brésil, du Paraguay et de l'Uruguay, où il vit le plus souvent dans des rivières au courant plus ou moins rapide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corydoras_paleatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_paleatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-C'est un poisson paisible qu'il faut toujours maintenir un groupe de 6 individus minimum (10 étant plus approprié). L'aquarium idéal possède donc une bonne surface au sol pour ces poissons d'environ 7 cm de long. Un bac de 150 litres est un minimum pour accueillir un groupe de 6 individus[1].
-Omnivore, il apprécie, en aquarium, une eau douce d'une température comprise entre 18° et 26 °C et un pH compris entre 7 et 8. Pour la reproduction, 23° et un pH de 7 sont optimum. La dureté devra être entre 5 et 19°d GH[2].
-Élevage
-Pour motiver la ponte, il est préférable de lui donner des proies vivantes comme des larves rouges de moustiques chironomes ou des vers tubifex. La reproduction en captivité est plutôt aisée : la femelle pond des œufs qu'elle colle sur des surfaces dures, souvent les vitres.
+C'est un poisson paisible qu'il faut toujours maintenir un groupe de 6 individus minimum (10 étant plus approprié). L'aquarium idéal possède donc une bonne surface au sol pour ces poissons d'environ 7 cm de long. Un bac de 150 litres est un minimum pour accueillir un groupe de 6 individus.
+Omnivore, il apprécie, en aquarium, une eau douce d'une température comprise entre 18° et 26 °C et un pH compris entre 7 et 8. Pour la reproduction, 23° et un pH de 7 sont optimum. La dureté devra être entre 5 et 19°d GH.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Corydoras_paleatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_paleatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour motiver la ponte, il est préférable de lui donner des proies vivantes comme des larves rouges de moustiques chironomes ou des vers tubifex. La reproduction en captivité est plutôt aisée : la femelle pond des œufs qu'elle colle sur des surfaces dures, souvent les vitres.
 </t>
         </is>
       </c>
